--- a/code_src/file_map.xlsx
+++ b/code_src/file_map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>default</t>
   </si>
@@ -26,6 +26,24 @@
     <t>index_table</t>
   </si>
   <si>
+    <t>shunqi_Data_cleaning_regular</t>
+  </si>
+  <si>
+    <t>shunqi_fieldname</t>
+  </si>
+  <si>
+    <t>shunqi_regular</t>
+  </si>
+  <si>
+    <t>tianyan_Data_cleaning_regular</t>
+  </si>
+  <si>
+    <t>tianyan_fieldname</t>
+  </si>
+  <si>
+    <t>tianyan_regular</t>
+  </si>
+  <si>
     <t>meituan_Data_cleaning_regular</t>
   </si>
   <si>
@@ -35,6 +53,15 @@
     <t>meituan_regular</t>
   </si>
   <si>
+    <t>dzdp_Data_cleaning_regular</t>
+  </si>
+  <si>
+    <t>dzdp_fieldname</t>
+  </si>
+  <si>
+    <t>dzdp_regular</t>
+  </si>
+  <si>
     <t>hbase字段名</t>
   </si>
   <si>
@@ -47,12 +74,27 @@
     <t>False</t>
   </si>
   <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>basic_info</t>
+  </si>
+  <si>
+    <t>register_addr</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
     <t>ADDRESS</t>
   </si>
   <si>
+    <t>business_license</t>
+  </si>
+  <si>
+    <t>organization_code</t>
+  </si>
+  <si>
     <t>BUSINESS_LICENSE</t>
   </si>
   <si>
@@ -62,73 +104,148 @@
     <t>rowkey</t>
   </si>
   <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>category1</t>
   </si>
   <si>
     <t>CITY</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>company_web_top</t>
+  </si>
+  <si>
     <t>EMAIL</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>company_classe</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
     <t>belong</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>INDUSTRY</t>
   </si>
   <si>
+    <t>shareholder_list</t>
+  </si>
+  <si>
+    <t>shareholder_name</t>
+  </si>
+  <si>
+    <t>legal_person</t>
+  </si>
+  <si>
     <t>LEGAL_PERSON</t>
   </si>
   <si>
+    <t>company_name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>shop_name</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
     <t>中国</t>
   </si>
   <si>
+    <t>province_name</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
     <t>PROVINCE</t>
   </si>
   <si>
     <t>(\d+)[.]*.*万</t>
   </si>
   <si>
+    <t>register_capital</t>
+  </si>
+  <si>
     <t>REGISTER_CAPITAL</t>
   </si>
   <si>
     <t>(\d{4}).*年</t>
   </si>
   <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>register_time</t>
+  </si>
+  <si>
     <t>REGISTER_TIME</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>reg_capital</t>
+  </si>
+  <si>
     <t>REG_CAPITAL</t>
   </si>
   <si>
+    <t>reg_time</t>
+  </si>
+  <si>
     <t>REG_TIME</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>company_status</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>(0\d{2,3}[-－—]*\s*\d{7,8})|(1[358479]\d{9})</t>
+    <t>(0\d{2,3}[-－—]*\s*\d{7,8}.*)|(1[358479]\d{9})|(^400[0-9]{7})</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>(0\d{2,3}[-－—]*\s*\d{7,8})|(1[358479]\d{9})|(^400[0-9]{7})</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
+    <t>\[</t>
+  </si>
+  <si>
     <t>TEL</t>
   </si>
   <si>
     <t>其他区</t>
+  </si>
+  <si>
+    <t>area_name</t>
   </si>
   <si>
     <t>URBAN_AREA</t>
@@ -480,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +605,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,276 +627,544 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s"/>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" t="s"/>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s"/>
-      <c r="G4" t="s">
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" t="s"/>
-      <c r="G5" t="s">
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s"/>
-      <c r="G6" t="s">
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s"/>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" t="s"/>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
       <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" t="s"/>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
       <c r="F14" t="s"/>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s"/>
       <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" t="s"/>
-      <c r="G16" t="s">
-        <v>38</v>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
